--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A467B876-DE0D-454D-9DD7-35058C3899D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203F8EA-1C93-43A2-9DF0-F1C1201695D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -44,27 +44,9 @@
     <t>Тариф</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Сумма,руб.</t>
-  </si>
-  <si>
-    <t>Дата оплаты,дней</t>
-  </si>
-  <si>
-    <t>Срок оплаты,дней</t>
-  </si>
-  <si>
     <t>Пени за день</t>
   </si>
   <si>
-    <t>Штраф,руб.</t>
-  </si>
-  <si>
-    <t>Итого,руб.</t>
-  </si>
-  <si>
     <t>Ахмадеев</t>
   </si>
   <si>
@@ -173,19 +155,37 @@
     <t>Куропаткин 12</t>
   </si>
   <si>
-    <t>Общая сумма графы “Итого”,руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь,кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки,дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате,руб.</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма графы “Итого”, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +270,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,23 +589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -628,7 +625,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -640,25 +637,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -666,9 +663,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
+        <f>70</f>
         <v>70</v>
       </c>
       <c r="D3" s="1">
@@ -706,9 +704,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -720,6 +719,7 @@
         <v>4739.9000000000005</v>
       </c>
       <c r="F4" s="4">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
@@ -746,9 +746,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -760,6 +761,7 @@
         <v>4705.8</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
@@ -786,9 +788,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -800,6 +803,7 @@
         <v>4671.7</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
@@ -826,9 +830,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -840,6 +845,7 @@
         <v>4637.6000000000004</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
@@ -866,9 +872,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -880,6 +887,7 @@
         <v>4603.5</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
@@ -906,9 +914,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -920,6 +929,7 @@
         <v>4569.4000000000005</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
@@ -946,9 +956,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -960,6 +971,7 @@
         <v>4535.3</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
@@ -986,9 +998,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -1000,6 +1013,7 @@
         <v>4501.2</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
@@ -1026,9 +1040,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1040,6 +1055,7 @@
         <v>4467.1000000000004</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
@@ -1066,9 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1080,6 +1097,7 @@
         <v>4433</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
@@ -1106,9 +1124,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1120,6 +1139,7 @@
         <v>4398.9000000000005</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
@@ -1146,9 +1166,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1160,6 +1181,7 @@
         <v>4364.8</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
@@ -1186,9 +1208,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1200,6 +1223,7 @@
         <v>4330.7</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
@@ -1226,9 +1250,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1240,6 +1265,7 @@
         <v>4296.6000000000004</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
@@ -1266,9 +1292,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1280,6 +1307,7 @@
         <v>4262.5</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
@@ -1306,9 +1334,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1320,6 +1349,7 @@
         <v>4228.4000000000005</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
@@ -1346,9 +1376,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1360,6 +1391,7 @@
         <v>4194.3</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
@@ -1386,9 +1418,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1400,6 +1433,7 @@
         <v>4160.2</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
@@ -1426,9 +1460,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1440,6 +1475,7 @@
         <v>4126.1000000000004</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
@@ -1466,9 +1502,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1480,6 +1517,7 @@
         <v>4092</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
@@ -1506,9 +1544,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1520,6 +1559,7 @@
         <v>4057.9</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
@@ -1546,9 +1586,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1560,6 +1601,7 @@
         <v>4023.8</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
@@ -1586,9 +1628,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1600,6 +1643,7 @@
         <v>3989.7000000000003</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
@@ -1626,9 +1670,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1640,6 +1685,7 @@
         <v>3955.6000000000004</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
@@ -1666,9 +1712,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1680,6 +1727,7 @@
         <v>3921.5</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
@@ -1706,9 +1754,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1720,6 +1769,7 @@
         <v>3887.4</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
@@ -1746,9 +1796,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1760,6 +1811,7 @@
         <v>3853.3</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
@@ -1786,9 +1838,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1800,6 +1853,7 @@
         <v>3819.2000000000003</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
@@ -1826,9 +1880,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1840,6 +1895,7 @@
         <v>3785.1000000000004</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
@@ -1866,9 +1922,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1880,6 +1937,7 @@
         <v>3751</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
@@ -1906,9 +1964,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1920,6 +1979,7 @@
         <v>3716.9</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
@@ -1946,9 +2006,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1960,6 +2021,7 @@
         <v>1841.4</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
@@ -1986,13 +2048,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="5">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2000,6 +2063,7 @@
         <v>1824.3500000000001</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
@@ -2026,13 +2090,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2040,6 +2105,7 @@
         <v>1807.3000000000002</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
@@ -2066,9 +2132,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2080,6 +2147,7 @@
         <v>1790.25</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
@@ -2117,7 +2185,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
@@ -2135,9 +2203,9 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="6">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2153,9 +2221,9 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="6">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2171,9 +2239,9 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4774</v>
       </c>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203F8EA-1C93-43A2-9DF0-F1C1201695D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D14098-7E48-449A-AC7A-7C7E1DA8E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -41,151 +41,151 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф</t>
+    <t>Ахмадеев</t>
+  </si>
+  <si>
+    <t>Ахметзянов</t>
+  </si>
+  <si>
+    <t>Ахтямова</t>
+  </si>
+  <si>
+    <t>Бабенко</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Билалова</t>
+  </si>
+  <si>
+    <t>Галимова</t>
+  </si>
+  <si>
+    <t>Добросов</t>
+  </si>
+  <si>
+    <t>Зеленцов</t>
+  </si>
+  <si>
+    <t>Конькова</t>
+  </si>
+  <si>
+    <t>Крутобережников</t>
+  </si>
+  <si>
+    <t>Курбанбаев</t>
+  </si>
+  <si>
+    <t>Лапыгин</t>
+  </si>
+  <si>
+    <t>Махмудхужаев</t>
+  </si>
+  <si>
+    <t>Пунько</t>
+  </si>
+  <si>
+    <t>Рафикова</t>
+  </si>
+  <si>
+    <t>Соловьева</t>
+  </si>
+  <si>
+    <t>Хайруллина</t>
+  </si>
+  <si>
+    <t>Шагимарданова</t>
+  </si>
+  <si>
+    <t>Щепина</t>
+  </si>
+  <si>
+    <t>Булдаков</t>
+  </si>
+  <si>
+    <t>Газетдинов</t>
+  </si>
+  <si>
+    <t>Казанкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Камалов</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма графы “Итого”, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
     <t>Пени за день</t>
-  </si>
-  <si>
-    <t>Ахмадеев</t>
-  </si>
-  <si>
-    <t>Ахметзянов</t>
-  </si>
-  <si>
-    <t>Ахтямова</t>
-  </si>
-  <si>
-    <t>Бабенко</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Билалова</t>
-  </si>
-  <si>
-    <t>Галимова</t>
-  </si>
-  <si>
-    <t>Добросов</t>
-  </si>
-  <si>
-    <t>Зеленцов</t>
-  </si>
-  <si>
-    <t>Конькова</t>
-  </si>
-  <si>
-    <t>Крутобережников</t>
-  </si>
-  <si>
-    <t>Курбанбаев</t>
-  </si>
-  <si>
-    <t>Лапыгин</t>
-  </si>
-  <si>
-    <t>Махмудхужаев</t>
-  </si>
-  <si>
-    <t>Пунько</t>
-  </si>
-  <si>
-    <t>Рафикова</t>
-  </si>
-  <si>
-    <t>Соловьева</t>
-  </si>
-  <si>
-    <t>Хайруллина</t>
-  </si>
-  <si>
-    <t>Шагимарданова</t>
-  </si>
-  <si>
-    <t>Щепина</t>
-  </si>
-  <si>
-    <t>Булдаков</t>
-  </si>
-  <si>
-    <t>Газетдинов</t>
-  </si>
-  <si>
-    <t>Казанкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Камалов</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 5</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
-    <t>№ квартиры</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма графы “Итого”, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -589,23 +589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -634,28 +634,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <f>70</f>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -730,6 +730,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -746,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -772,6 +773,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -788,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -814,6 +816,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -830,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -856,6 +859,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -872,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -898,6 +902,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -914,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -940,6 +945,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -956,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -982,6 +988,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -998,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1024,6 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1040,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1066,6 +1074,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1082,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1108,6 +1117,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1124,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1150,6 +1160,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1166,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1192,6 +1203,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1208,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1234,6 +1246,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1250,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1276,6 +1289,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1292,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1318,6 +1332,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1334,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1360,6 +1375,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1376,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1402,6 +1418,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1418,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1444,6 +1461,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1460,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1486,6 +1504,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1502,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1528,6 +1547,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1544,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1570,6 +1590,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1586,7 +1607,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1612,6 +1633,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1628,7 +1650,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1654,6 +1676,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1670,7 +1693,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1696,6 +1719,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1712,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1738,6 +1762,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1754,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1780,6 +1805,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1796,7 +1822,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1822,6 +1848,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1838,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1864,6 +1891,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1880,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1906,6 +1934,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1922,7 +1951,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1948,6 +1977,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1964,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1990,6 +2020,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2006,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2032,6 +2063,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2048,14 +2080,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="8">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2074,6 +2106,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2090,14 +2123,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2116,6 +2149,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2132,7 +2166,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2158,6 +2192,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2185,11 +2220,11 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
-        <v>146897.69999999998</v>
+        <f>ROUNDUP(SUM(K3:K38),)</f>
+        <v>146898</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2203,7 +2238,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2221,7 +2256,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2239,7 +2274,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D14098-7E48-449A-AC7A-7C7E1DA8E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EE704-2AA6-4F97-ADDF-1963DD51D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -161,12 +161,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>Пени за день</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,8 +600,8 @@
     <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -634,22 +634,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>40</v>
@@ -730,7 +730,6 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -773,7 +772,6 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -816,7 +814,6 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -833,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -859,7 +856,6 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -876,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -902,7 +898,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -945,7 +940,6 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -988,7 +982,6 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1031,7 +1024,6 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1074,7 +1066,6 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1117,7 +1108,6 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1160,7 +1150,6 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1203,7 +1192,6 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1246,7 +1234,6 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1289,7 +1276,6 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1332,7 +1318,6 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1375,7 +1360,6 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1418,7 +1402,6 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1461,7 +1444,6 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1504,7 +1486,6 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1547,7 +1528,6 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1590,7 +1570,6 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1633,7 +1612,6 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1676,7 +1654,6 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1719,7 +1696,6 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1762,7 +1738,6 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1805,7 +1780,6 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1848,7 +1822,6 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1891,7 +1864,6 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1934,7 +1906,6 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1977,7 +1948,6 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2020,7 +1990,6 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2063,7 +2032,6 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2087,7 +2055,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="8">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2106,7 +2074,6 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2130,7 +2097,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2149,7 +2116,6 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2192,7 +2158,6 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2220,7 +2185,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5">
         <f>ROUNDUP(SUM(K3:K38),)</f>
@@ -2238,7 +2203,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2256,7 +2221,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2274,7 +2239,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EE704-2AA6-4F97-ADDF-1963DD51D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE39CED1-C1B0-4E2B-A691-6AEBF8410D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -179,13 +179,13 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
     <t>Пени за день</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
   </si>
 </sst>
 </file>
@@ -589,17 +589,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
@@ -640,16 +640,16 @@
         <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>40</v>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE39CED1-C1B0-4E2B-A691-6AEBF8410D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CA678-9C31-4A40-B3E6-36600223FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +730,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -772,6 +773,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -814,6 +816,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -856,6 +859,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -898,6 +902,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -940,6 +945,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -982,6 +988,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1024,6 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1066,6 +1074,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1108,6 +1117,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1150,6 +1160,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1192,6 +1203,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1234,6 +1246,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1276,6 +1289,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1318,6 +1332,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1360,6 +1375,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1402,6 +1418,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1444,6 +1461,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1486,6 +1504,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1528,6 +1547,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1570,6 +1590,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1612,6 +1633,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1654,6 +1676,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1696,6 +1719,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1738,6 +1762,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1780,6 +1805,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1822,6 +1848,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1864,6 +1891,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1906,6 +1934,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1948,6 +1977,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1990,6 +2020,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2032,6 +2063,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2055,7 +2087,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="8">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2074,6 +2106,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2097,7 +2130,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2116,6 +2149,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2158,6 +2192,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CA678-9C31-4A40-B3E6-36600223FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D3015-9ACE-40AF-8EF5-AB0BFBBE094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -161,6 +161,12 @@
     <t>Итого, руб.</t>
   </si>
   <si>
+    <t>Дата оплаты, дней</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -176,16 +182,10 @@
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
+    <t>Пени за день, руб.</t>
+  </si>
+  <si>
     <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Пени за день</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,12 +600,12 @@
     <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -634,22 +634,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>40</v>
@@ -730,7 +730,6 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -773,7 +772,6 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -816,7 +814,6 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -833,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -859,7 +856,6 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -876,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -902,7 +898,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -945,7 +940,6 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -988,7 +982,6 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1031,7 +1024,6 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1074,7 +1066,6 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1117,7 +1108,6 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1160,7 +1150,6 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1203,7 +1192,6 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1246,7 +1234,6 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1289,7 +1276,6 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1332,7 +1318,6 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1375,7 +1360,6 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1418,7 +1402,6 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1461,7 +1444,6 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1504,7 +1486,6 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1547,7 +1528,6 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1590,7 +1570,6 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1633,7 +1612,6 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1676,7 +1654,6 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1719,7 +1696,6 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1762,7 +1738,6 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1805,7 +1780,6 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1848,7 +1822,6 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1891,7 +1864,6 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1934,7 +1906,6 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1977,7 +1948,6 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2020,7 +1990,6 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2063,7 +2032,6 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2087,7 +2055,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="8">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2106,7 +2074,6 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2130,7 +2097,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2149,7 +2116,6 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2192,7 +2158,6 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2220,7 +2185,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
         <f>ROUNDUP(SUM(K3:K38),)</f>
@@ -2238,7 +2203,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2256,7 +2221,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2274,7 +2239,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D3015-9ACE-40AF-8EF5-AB0BFBBE094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168DE61F-D730-421F-BB05-E9B76259372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
     <t>Ахмадеев</t>
   </si>
   <si>
@@ -152,40 +149,43 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма графы “Итого”, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
-    <t>Пени за день, руб.</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Просрочка</t>
+  </si>
+  <si>
+    <t>Пени за день</t>
+  </si>
+  <si>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Общая сумма графы “Итого”</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате</t>
   </si>
 </sst>
 </file>
@@ -589,23 +589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -625,37 +625,37 @@
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>70</f>
@@ -701,10 +701,11 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -730,6 +731,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -743,13 +745,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -761,7 +764,7 @@
         <v>4705.8</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
@@ -772,6 +775,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -785,13 +789,14 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -803,7 +808,7 @@
         <v>4671.7</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
@@ -814,6 +819,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -827,13 +833,14 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -845,7 +852,7 @@
         <v>4637.6000000000004</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
@@ -856,6 +863,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -869,13 +877,14 @@
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -887,7 +896,7 @@
         <v>4603.5</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
@@ -898,6 +907,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -911,13 +921,14 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -929,7 +940,7 @@
         <v>4569.4000000000005</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
@@ -940,6 +951,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -953,13 +965,14 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -971,7 +984,7 @@
         <v>4535.3</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
@@ -982,6 +995,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -995,13 +1009,14 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -1013,7 +1028,7 @@
         <v>4501.2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
@@ -1024,6 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1037,13 +1053,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1055,7 +1072,7 @@
         <v>4467.1000000000004</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
@@ -1066,6 +1083,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1079,13 +1097,14 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1097,7 +1116,7 @@
         <v>4433</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
@@ -1108,6 +1127,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1121,13 +1141,14 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1139,7 +1160,7 @@
         <v>4398.9000000000005</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
@@ -1150,6 +1171,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1163,13 +1185,14 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1181,7 +1204,7 @@
         <v>4364.8</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
@@ -1192,6 +1215,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1205,13 +1229,14 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1223,7 +1248,7 @@
         <v>4330.7</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
@@ -1234,6 +1259,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1247,13 +1273,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1265,7 +1292,7 @@
         <v>4296.6000000000004</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
@@ -1276,6 +1303,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1289,13 +1317,14 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1307,7 +1336,7 @@
         <v>4262.5</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
@@ -1318,6 +1347,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1331,13 +1361,14 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1349,7 +1380,7 @@
         <v>4228.4000000000005</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
@@ -1360,6 +1391,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1373,13 +1405,14 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1391,7 +1424,7 @@
         <v>4194.3</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
@@ -1402,6 +1435,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1415,13 +1449,14 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1433,7 +1468,7 @@
         <v>4160.2</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
@@ -1444,6 +1479,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1457,13 +1493,14 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1475,7 +1512,7 @@
         <v>4126.1000000000004</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
@@ -1486,6 +1523,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1499,13 +1537,14 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1517,7 +1556,7 @@
         <v>4092</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
@@ -1528,6 +1567,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1541,13 +1581,14 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1559,7 +1600,7 @@
         <v>4057.9</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
@@ -1570,6 +1611,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1583,13 +1625,14 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1601,7 +1644,7 @@
         <v>4023.8</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
@@ -1612,6 +1655,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1625,13 +1669,14 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1643,7 +1688,7 @@
         <v>3989.7000000000003</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
@@ -1654,6 +1699,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1667,13 +1713,14 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1685,7 +1732,7 @@
         <v>3955.6000000000004</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
@@ -1696,6 +1743,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1709,13 +1757,14 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1727,7 +1776,7 @@
         <v>3921.5</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
@@ -1738,6 +1787,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1751,13 +1801,14 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1769,7 +1820,7 @@
         <v>3887.4</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
@@ -1780,6 +1831,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1793,13 +1845,14 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1811,7 +1864,7 @@
         <v>3853.3</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
@@ -1822,6 +1875,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1835,13 +1889,14 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1853,7 +1908,7 @@
         <v>3819.2000000000003</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
@@ -1864,6 +1919,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1877,13 +1933,14 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1895,7 +1952,7 @@
         <v>3785.1000000000004</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
@@ -1906,6 +1963,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1919,13 +1977,14 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1937,7 +1996,7 @@
         <v>3751</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
@@ -1948,6 +2007,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1961,13 +2021,14 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1979,7 +2040,7 @@
         <v>3716.9</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
@@ -1990,6 +2051,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2003,13 +2065,14 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -2021,7 +2084,7 @@
         <v>1841.4</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
@@ -2032,6 +2095,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2045,17 +2109,18 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="9">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2063,7 +2128,7 @@
         <v>1824.3500000000001</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
@@ -2074,6 +2139,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2087,17 +2153,18 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2105,7 +2172,7 @@
         <v>1807.3000000000002</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
@@ -2116,6 +2183,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2129,13 +2197,14 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2147,7 +2216,7 @@
         <v>1790.25</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
@@ -2158,6 +2227,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2185,7 +2255,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5">
         <f>ROUNDUP(SUM(K3:K38),)</f>
@@ -2203,7 +2273,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2221,7 +2291,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2239,7 +2309,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168DE61F-D730-421F-BB05-E9B76259372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB83914-CE91-4E9D-A7CD-D5C7127291EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -149,43 +149,43 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Площадь</t>
-  </si>
-  <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Пени за день</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Общая сумма графы “Итого”</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -589,23 +589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>43</v>
@@ -724,6 +724,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -768,6 +769,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -775,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -812,6 +814,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -819,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -856,6 +859,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -863,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -900,6 +904,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -907,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -944,6 +949,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -988,6 +994,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -995,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1032,6 +1039,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1039,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1076,6 +1084,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1083,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1120,6 +1129,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1127,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1164,6 +1174,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1171,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1208,6 +1219,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1215,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1252,6 +1264,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1259,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1296,6 +1309,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1303,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1340,6 +1354,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1347,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1384,6 +1399,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1391,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1428,6 +1444,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1435,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1472,6 +1489,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1479,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1516,6 +1534,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1523,7 +1542,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1560,6 +1579,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1567,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1604,6 +1624,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1611,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1648,6 +1669,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1655,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1692,6 +1714,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1699,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1736,6 +1759,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1743,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1780,6 +1804,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1787,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1824,6 +1849,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1831,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1868,6 +1894,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1875,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1912,6 +1939,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1919,7 +1947,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1956,6 +1984,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1963,7 +1992,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -2000,6 +2029,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -2007,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2044,6 +2074,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2051,7 +2082,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2088,6 +2119,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2095,7 +2127,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2120,7 +2152,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="9">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="10">($A$1*1.1)/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
@@ -2132,6 +2164,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2139,7 +2172,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2164,7 +2197,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
@@ -2176,6 +2209,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2183,7 +2217,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2220,6 +2254,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2227,7 +2262,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2258,8 +2293,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDUP(SUM(K3:K38),)</f>
-        <v>146898</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>146897</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB83914-CE91-4E9D-A7CD-D5C7127291EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8FC1E-B185-4914-96E4-8EF4A52035A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Ахмадеев</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день, руб.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +603,7 @@
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -625,37 +625,37 @@
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <f>70</f>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -930,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1155,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1290,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1335,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1380,7 +1380,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1425,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1560,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1605,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1650,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1695,7 +1695,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1740,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1785,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1830,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1875,7 +1875,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1920,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1965,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -2055,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2100,7 +2100,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2145,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2235,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2290,7 +2290,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2308,7 +2308,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2326,7 +2326,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2344,7 +2344,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8FC1E-B185-4914-96E4-8EF4A52035A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC08C09-167A-4312-9791-7000042AA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +670,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>68.2</v>
       </c>
       <c r="E3" s="1">
@@ -712,11 +712,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>68.2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>4739.9000000000005</v>
       </c>
       <c r="F4" s="4">
@@ -728,7 +728,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -736,32 +736,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>4739.9000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>68.2</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4705.8</v>
       </c>
       <c r="F5" s="4">
@@ -773,7 +773,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -781,32 +781,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4705.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4671.7</v>
       </c>
       <c r="F6" s="4">
@@ -818,7 +818,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -826,32 +826,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4671.7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4637.6000000000004</v>
       </c>
       <c r="F7" s="4">
@@ -863,7 +863,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -871,32 +871,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4637.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4603.5</v>
       </c>
       <c r="F8" s="4">
@@ -908,7 +908,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -916,32 +916,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4603.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4569.4000000000005</v>
       </c>
       <c r="F9" s="4">
@@ -953,7 +953,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -961,32 +961,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4569.4000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4535.3</v>
       </c>
       <c r="F10" s="4">
@@ -998,7 +998,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -1006,32 +1006,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4535.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4501.2</v>
       </c>
       <c r="F11" s="4">
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1051,32 +1051,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4501.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4467.1000000000004</v>
       </c>
       <c r="F12" s="4">
@@ -1088,7 +1088,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1096,32 +1096,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4477.1000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4433</v>
       </c>
       <c r="F13" s="4">
@@ -1133,7 +1133,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1141,32 +1141,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4453</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4398.9000000000005</v>
       </c>
       <c r="F14" s="4">
@@ -1178,7 +1178,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1186,32 +1186,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4428.9000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4364.8</v>
       </c>
       <c r="F15" s="4">
@@ -1223,7 +1223,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1231,32 +1231,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4404.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4330.7</v>
       </c>
       <c r="F16" s="4">
@@ -1268,7 +1268,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1276,32 +1276,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4380.7</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4296.6000000000004</v>
       </c>
       <c r="F17" s="4">
@@ -1313,7 +1313,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1321,32 +1321,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4356.6000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4262.5</v>
       </c>
       <c r="F18" s="4">
@@ -1358,7 +1358,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1366,32 +1366,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4332.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4228.4000000000005</v>
       </c>
       <c r="F19" s="4">
@@ -1403,7 +1403,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1411,32 +1411,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4308.4000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4194.3</v>
       </c>
       <c r="F20" s="4">
@@ -1448,7 +1448,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1456,32 +1456,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4284.3</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4160.2</v>
       </c>
       <c r="F21" s="4">
@@ -1493,7 +1493,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1501,32 +1501,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4260.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4126.1000000000004</v>
       </c>
       <c r="F22" s="4">
@@ -1538,7 +1538,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1546,32 +1546,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4236.1000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4092</v>
       </c>
       <c r="F23" s="4">
@@ -1583,7 +1583,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1591,32 +1591,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4212</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4057.9</v>
       </c>
       <c r="F24" s="4">
@@ -1628,7 +1628,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1636,32 +1636,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4187.8999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4023.8</v>
       </c>
       <c r="F25" s="4">
@@ -1673,7 +1673,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1681,32 +1681,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4163.8</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3989.7000000000003</v>
       </c>
       <c r="F26" s="4">
@@ -1718,7 +1718,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1726,32 +1726,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4139.7000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3955.6000000000004</v>
       </c>
       <c r="F27" s="4">
@@ -1763,7 +1763,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1771,32 +1771,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4115.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3921.5</v>
       </c>
       <c r="F28" s="4">
@@ -1808,7 +1808,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1816,32 +1816,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4091.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3887.4</v>
       </c>
       <c r="F29" s="4">
@@ -1853,7 +1853,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1861,32 +1861,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4067.4</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3853.3</v>
       </c>
       <c r="F30" s="4">
@@ -1898,7 +1898,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1906,32 +1906,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4043.3</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3819.2000000000003</v>
       </c>
       <c r="F31" s="4">
@@ -1943,7 +1943,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1951,32 +1951,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4019.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3785.1000000000004</v>
       </c>
       <c r="F32" s="4">
@@ -1988,7 +1988,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1996,32 +1996,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3995.1000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3751</v>
       </c>
       <c r="F33" s="4">
@@ -2033,7 +2033,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2041,32 +2041,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3971</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.2</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3716.9</v>
       </c>
       <c r="F34" s="4">
@@ -2078,7 +2078,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3946.9</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>($A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>34.1</v>
       </c>
       <c r="E35" s="1">
@@ -2123,7 +2123,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2131,32 +2131,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2081.4</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="10">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>34.1</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1824.3500000000001</v>
       </c>
       <c r="F36" s="4">
@@ -2168,7 +2168,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2176,24 +2176,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2074.3500000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2201,7 +2201,7 @@
         <v>34.1</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1807.3000000000002</v>
       </c>
       <c r="F37" s="4">
@@ -2213,7 +2213,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2221,32 +2221,32 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2067.3000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>($A$1*1.1)/2</f>
+        <f t="shared" si="10"/>
         <v>34.1</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1790.25</v>
       </c>
       <c r="F38" s="4">
@@ -2258,7 +2258,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2266,11 +2266,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2060.25</v>
       </c>
     </row>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C6A43-4FAB-42DA-8908-64B0E5C6A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4E7E5-F94F-4C07-9166-63718738CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_62.xlsx
+++ b/LR3/table_1_62.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4E7E5-F94F-4C07-9166-63718738CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5CE1DC-8EF7-46A0-95A6-31F711CF20E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,15 +131,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -182,10 +173,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
     <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -615,37 +615,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1189,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1725,30 +1725,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>68.2</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>3955.6000000000004</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1774,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1819,7 +1819,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1864,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1909,7 +1909,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1954,7 +1954,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1999,7 +1999,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2044,7 +2044,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2089,7 +2089,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2100,7 +2100,7 @@
         <v>34.1</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1841.4</v>
       </c>
       <c r="F35" s="3">
@@ -2134,7 +2134,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2179,7 +2179,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2224,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2263,49 +2263,41 @@
         <v>2060.25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>146897</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4774</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
